--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="1740" yWindow="-120" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>http://10.20.200.206/dev3_rpa/_banktrade.html</t>
-  </si>
-  <si>
     <t>Folder Log</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>fikri_nurdiansyah@intra.bca</t>
+  </si>
+  <si>
+    <t>http://10.20.201.112/dev3_rpa/_banktrade.html</t>
   </si>
 </sst>
 </file>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -646,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
@@ -731,10 +731,10 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -742,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>3</v>
@@ -771,7 +771,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
@@ -779,10 +779,10 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>3</v>
@@ -1901,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1925,7 +1925,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -1934,7 +1934,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -1943,7 +1943,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -1952,7 +1952,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4"/>
     </row>
